--- a/EVALUACION/GRÁFICO DE BARRAS ÁRBOL DE DECISIÓN Y SVM.xlsx
+++ b/EVALUACION/GRÁFICO DE BARRAS ÁRBOL DE DECISIÓN Y SVM.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DB5148-E011-4F67-8970-947392CE47D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C4CC5-7B12-4BAB-9F5C-D128C038AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="530" windowWidth="9240" windowHeight="8610" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" GRÁFICO SVM" sheetId="1" r:id="rId1"/>
-    <sheet name=" GRÁFICO ÁRBOL DE DECISIÓN" sheetId="2" r:id="rId2"/>
+    <sheet name="PRECISIÓN GRÁFICO SVM" sheetId="1" r:id="rId1"/>
+    <sheet name="ACCURACY GRÁFICO SVM" sheetId="5" r:id="rId2"/>
+    <sheet name="RECALL GRÁFICO SVM " sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="PRECISIÓN GRÁFICO ÁRBOL D." sheetId="2" r:id="rId5"/>
+    <sheet name="ACCURACY GRÁFICO ÁRBOL D." sheetId="6" r:id="rId6"/>
+    <sheet name="RECALL GRÁFICO ÁRBOL D." sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
   <si>
     <t>Técnicas</t>
   </si>
@@ -193,7 +198,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>' GRÁFICO SVM'!$B$2</c:f>
+              <c:f>'PRECISIÓN GRÁFICO SVM'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -309,7 +314,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>' GRÁFICO SVM'!$A$3:$A$5</c:f>
+              <c:f>'PRECISIÓN GRÁFICO SVM'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -326,7 +331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' GRÁFICO SVM'!$B$3:$B$5</c:f>
+              <c:f>'PRECISIÓN GRÁFICO SVM'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -353,7 +358,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>' GRÁFICO SVM'!$C$2</c:f>
+              <c:f>'PRECISIÓN GRÁFICO SVM'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -469,7 +474,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>' GRÁFICO SVM'!$A$3:$A$5</c:f>
+              <c:f>'PRECISIÓN GRÁFICO SVM'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -486,7 +491,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' GRÁFICO SVM'!$C$3:$C$5</c:f>
+              <c:f>'PRECISIÓN GRÁFICO SVM'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -747,15 +752,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-EC"/>
-              <a:t>Árbol</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC" baseline="0"/>
-              <a:t> de Decisión (DT)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC"/>
-              <a:t>- Precisión</a:t>
+              <a:t>Support Vector Machine (SVM) - Accuracy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -801,7 +798,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>' GRÁFICO ÁRBOL DE DECISIÓN'!$B$2</c:f>
+              <c:f>'ACCURACY GRÁFICO SVM'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -917,7 +914,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>' GRÁFICO ÁRBOL DE DECISIÓN'!$A$3:$A$5</c:f>
+              <c:f>'ACCURACY GRÁFICO SVM'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -934,25 +931,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' GRÁFICO ÁRBOL DE DECISIÓN'!$B$3:$B$5</c:f>
+              <c:f>'ACCURACY GRÁFICO SVM'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>83.37</c:v>
+                  <c:v>82.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.5</c:v>
+                  <c:v>83.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.63</c:v>
+                  <c:v>83.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADE1-4E83-BDB0-F28BE8262108}"/>
+              <c16:uniqueId val="{00000000-28E9-4B4D-8FC6-63483C08C839}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -961,7 +958,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>' GRÁFICO ÁRBOL DE DECISIÓN'!$C$2</c:f>
+              <c:f>'ACCURACY GRÁFICO SVM'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1077,7 +1074,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>' GRÁFICO ÁRBOL DE DECISIÓN'!$A$3:$A$5</c:f>
+              <c:f>'ACCURACY GRÁFICO SVM'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1094,7 +1091,1215 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' GRÁFICO ÁRBOL DE DECISIÓN'!$C$3:$C$5</c:f>
+              <c:f>'ACCURACY GRÁFICO SVM'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28E9-4B4D-8FC6-63483C08C839}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="728574976"/>
+        <c:axId val="765792080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728574976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765792080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765792080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728574976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Support Vector Machine (SVM) - Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RECALL GRÁFICO SVM '!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valid. Cruzada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RECALL GRÁFICO SVM '!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sin Optimización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayesian Optimization (Librería de OB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optuna (Librería de OB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RECALL GRÁFICO SVM '!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>82.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8A2-48DD-8A19-843973C4642F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RECALL GRÁFICO SVM '!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RECALL GRÁFICO SVM '!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sin Optimización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayesian Optimization (Librería de OB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optuna (Librería de OB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RECALL GRÁFICO SVM '!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8A2-48DD-8A19-843973C4642F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="728574976"/>
+        <c:axId val="765792080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728574976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765792080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765792080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728574976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Árbol</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> de Decisión (DT)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>- Precisión</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PRECISIÓN GRÁFICO ÁRBOL D.'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valid. Cruzada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PRECISIÓN GRÁFICO ÁRBOL D.'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sin Optimización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayesian Optimization (Librería de OB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optuna (Librería de OB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PRECISIÓN GRÁFICO ÁRBOL D.'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADE1-4E83-BDB0-F28BE8262108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PRECISIÓN GRÁFICO ÁRBOL D.'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PRECISIÓN GRÁFICO ÁRBOL D.'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sin Optimización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayesian Optimization (Librería de OB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optuna (Librería de OB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PRECISIÓN GRÁFICO ÁRBOL D.'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1320,7 +2525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1932,6 +3137,2446 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Árbol</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> de Decisión (DT)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>- Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACCURACY GRÁFICO ÁRBOL D.'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valid. Cruzada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ACCURACY GRÁFICO ÁRBOL D.'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sin Optimización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayesian Optimization (Librería de OB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optuna (Librería de OB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACCURACY GRÁFICO ÁRBOL D.'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C9D-4E15-AD18-EDB0F982E79D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACCURACY GRÁFICO ÁRBOL D.'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ACCURACY GRÁFICO ÁRBOL D.'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sin Optimización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayesian Optimization (Librería de OB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optuna (Librería de OB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACCURACY GRÁFICO ÁRBOL D.'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C9D-4E15-AD18-EDB0F982E79D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="728574976"/>
+        <c:axId val="765792080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728574976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765792080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765792080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728574976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Árbol</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> de Decisión (DT)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>- Precisión</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAD0-43A4-BCE4-FC34C278CB10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAD0-43A4-BCE4-FC34C278CB10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="728574976"/>
+        <c:axId val="765792080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728574976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765792080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765792080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728574976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Árbol</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> de Decisión (DT)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>- Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RECALL GRÁFICO ÁRBOL D.'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valid. Cruzada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RECALL GRÁFICO ÁRBOL D.'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sin Optimización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayesian Optimization (Librería de OB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optuna (Librería de OB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RECALL GRÁFICO ÁRBOL D.'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70BB-4A2F-B7FE-5619113D1442}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RECALL GRÁFICO ÁRBOL D.'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RECALL GRÁFICO ÁRBOL D.'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sin Optimización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayesian Optimization (Librería de OB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optuna (Librería de OB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RECALL GRÁFICO ÁRBOL D.'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70BB-4A2F-B7FE-5619113D1442}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="728574976"/>
+        <c:axId val="765792080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728574976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765792080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765792080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728574976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Árbol</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> de Decisión (DT)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>- Precisión</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5622-4811-84F5-D25A04BCF8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CASO 1 GRAFICO Árbol Decisión'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5622-4811-84F5-D25A04BCF8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="728574976"/>
+        <c:axId val="765792080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728574976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765792080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765792080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728574976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2043,6 +5688,228 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
@@ -3048,6 +6915,3018 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3591,6 +10470,92 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>240425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102232</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04B6ADC-A8C0-4FAA-9C4E-03244A0437AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>240425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102232</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28829FC-6D3D-48BD-BF5E-C1920F4C3BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3649,6 +10614,168 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435D7EB2-348D-4EA7-8326-7BCFA2196B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136783</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F46C477-B416-4EAF-BA8C-8550A80D4440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241269</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40814</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24AAD55-E120-4AD5-A39A-4F767D1E8D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136783</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C006E0AF-65CD-495D-9812-8DDDA7526472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241269</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40814</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C169A109-E737-4894-AE54-31F841A344CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3959,7 +11086,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4023,11 +11150,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733B30-A03A-4CFB-9FFE-1BB93008D21F}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>82.34</v>
+      </c>
+      <c r="C3">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>83.86</v>
+      </c>
+      <c r="C4">
+        <v>83.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>83.78</v>
+      </c>
+      <c r="C5">
+        <v>84.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E77AC0D-86BE-46B0-813E-50BD589D3D74}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>82.34</v>
+      </c>
+      <c r="C3">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>83.86</v>
+      </c>
+      <c r="C4">
+        <v>83.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>83.78</v>
+      </c>
+      <c r="C5">
+        <v>84.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1190C81-E3B2-41E3-9CF6-EB3195CF145C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4090,4 +11365,144 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659385B2-F521-4F30-BADF-C3BEA52E439C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>83.36</v>
+      </c>
+      <c r="C3">
+        <v>83.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>83.5</v>
+      </c>
+      <c r="C4">
+        <v>83.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>83.62</v>
+      </c>
+      <c r="C5">
+        <v>84.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F1D1C7-5283-4EB5-B712-CCB80CFD39CF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>83.37</v>
+      </c>
+      <c r="C3">
+        <v>83.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>83.5</v>
+      </c>
+      <c r="C4">
+        <v>83.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>83.62</v>
+      </c>
+      <c r="C5">
+        <v>84.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>